--- a/biology/Biochimie/MAGUK/MAGUK.xlsx
+++ b/biology/Biochimie/MAGUK/MAGUK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Les protéines MAGUK (Membrane-Associated GUanylate Kinase) sont des macromolécules intervenant dans l'organisation des membranes plasmiques. Elles sont des composants des récepteurs NMDA, intervenant dans les interactions chimiques de la densité post-synaptique, dit PSR[1]. Les MAGUK possèdent plusieurs domaines d’interaction protéique chacune.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Les protéines MAGUK (Membrane-Associated GUanylate Kinase) sont des macromolécules intervenant dans l'organisation des membranes plasmiques. Elles sont des composants des récepteurs NMDA, intervenant dans les interactions chimiques de la densité post-synaptique, dit PSR. Les MAGUK possèdent plusieurs domaines d’interaction protéique chacune.
 ELLES se retrouvent dans les membranes plasmiques, dans l'organisation des régions spécialisées, comme dans :
-les synapses neuronales[2] ;
+les synapses neuronales ;
 les zones d'adhérence des bordures perméables épithéliales ;
 le complexe protéine (en) -NMDAR ;
 les disques intercalaires du myocarde.</t>
@@ -515,9 +527,11 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette super-famille comprend diverses protéines, qui agissent sur plusieurs domaines dits protéiques (PDZ (en), SH3 (en), GUK)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette super-famille comprend diverses protéines, qui agissent sur plusieurs domaines dits protéiques (PDZ (en), SH3 (en), GUK).
 Post-synaptic density 95 ou PSD95 ;
 Chapsyne 110 ;
 Synapse-associated protein 95 ou SAP95 ;
